--- a/src/main/resources/testdata/Check_That_UserCanSearchForAnUpdated_GF_Synonyms.xlsx
+++ b/src/main/resources/testdata/Check_That_UserCanSearchForAnUpdated_GF_Synonyms.xlsx
@@ -60,10 +60,10 @@
     <t>editedSynonym</t>
   </si>
   <si>
-    <t>Q2_update_synonyms</t>
-  </si>
-  <si>
     <t>Aegilops biuncialis</t>
+  </si>
+  <si>
+    <t>update_synonyms</t>
   </si>
 </sst>
 </file>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
